--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>vishalrathi910@gmail.com</t>
-  </si>
-  <si>
-    <t>vishalisgood@725769725769</t>
-  </si>
-  <si>
     <t>aadfa@123</t>
   </si>
   <si>
     <t>qwre</t>
+  </si>
+  <si>
+    <t>facebooktestingdemo@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -384,18 +386,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
